--- a/data/balance_sheet/3digits/total/013_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/013_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>013-Plant propagation</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>013-Plant propagation</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>197772.52429</v>
@@ -1490,32 +940,37 @@
         <v>271953.51673</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>458148.89522</v>
+        <v>458174.1211099999</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>760721.7895599999</v>
+        <v>779777.6185499999</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>927396.66918</v>
+        <v>927471.6441700001</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>1134769.82894</v>
+        <v>1173006.51508</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>1430481.76017</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>1707495.30484</v>
+        <v>1708001.22226</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>2013125.66735</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>2021779.21988</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>2828300.184</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>27884.0588</v>
@@ -1530,72 +985,82 @@
         <v>44303.92999</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>65327.31408</v>
+        <v>65327.4569</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>115144.18965</v>
+        <v>115209.58659</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>130272.18032</v>
+        <v>130273.83948</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>159326.03841</v>
+        <v>173934.62782</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>219864.47118</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>252207.07842</v>
+        <v>252308.10121</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>274123.07312</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>277523.97333</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>407718.179</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
-        <v>7289.310979999999</v>
+        <v>7289.31098</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>4324.91103</v>
+        <v>4324.911029999999</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>4330.4926</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>4828.92345</v>
+        <v>4828.923449999999</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>10557.66947</v>
+        <v>10557.81229</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>18253.06232</v>
+        <v>18257.9287</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>11748.8206</v>
+        <v>11750.47976</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>16398.42654</v>
+        <v>16464.25084</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>12443.08623</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>18017.68645</v>
+        <v>18063.52329</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>20374.6462</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>20475.29667</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>34723.42</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>17011.60395</v>
@@ -1619,7 +1084,7 @@
         <v>76737.07306</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>91405.60766999998</v>
+        <v>107115.63193</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>107815.22214</v>
@@ -1628,14 +1093,19 @@
         <v>131311.37951</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>150021.34518</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>152889.60702</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>144840.423</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>7550.651970000001</v>
@@ -1653,29 +1123,34 @@
         <v>21288.12692</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>45429.96623999999</v>
+        <v>45470.3138</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>52809.81295</v>
+        <v>52809.81294999999</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>65078.57691999999</v>
+        <v>67171.15889999999</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>116928.35463</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>134861.83733</v>
+        <v>134917.02328</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>140055.44355</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>140567.0978</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>284896.067</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>4322.83627</v>
@@ -1699,23 +1174,28 @@
         <v>12990.90912</v>
       </c>
       <c r="J10" s="21" t="n">
-        <v>15614.79319</v>
+        <v>18874.91861</v>
       </c>
       <c r="K10" s="22" t="n">
         <v>20538.27366</v>
       </c>
       <c r="L10" s="22" t="n">
-        <v>34956.01951000001</v>
+        <v>34956.01951</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>39758.12939</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>39837.86539</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>60747.162</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>355.32817</v>
@@ -1733,13 +1213,13 @@
         <v>1142.02219</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>1594.33525</v>
+        <v>1614.51825</v>
       </c>
       <c r="I11" s="22" t="n">
         <v>1967.38283</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>2058.22047</v>
+        <v>2058.50476</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>3216.08184</v>
@@ -1748,14 +1228,19 @@
         <v>2972.19464</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>3429.76758</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>3429.83723</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>4005.431</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>45.36576</v>
@@ -1779,7 +1264,7 @@
         <v>1798.84968</v>
       </c>
       <c r="J12" s="33" t="n">
-        <v>954.72571</v>
+        <v>954.7257099999999</v>
       </c>
       <c r="K12" s="23" t="n">
         <v>3918.10111</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>5879.441269999999</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>3793.353</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>439.561</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>3346.73966</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>28.478</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>40.34948</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>1163.50352</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>2490.556</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>5.01628</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>1369.19809</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>834.758</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>74110.75822</v>
@@ -2013,32 +1528,37 @@
         <v>212151.85084</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>343972.1312999999</v>
+        <v>356370.08401</v>
       </c>
       <c r="I18" s="23" t="n">
         <v>456274.75769</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>550316.37663</v>
+        <v>561856.84954</v>
       </c>
       <c r="K18" s="23" t="n">
-        <v>670998.4419000001</v>
+        <v>670998.4419</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>722820.9595999999</v>
+        <v>723099.2938300002</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>915415.45026</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>911515.1092000001</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>1270013.361</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
-        <v>53446.40726</v>
+        <v>53446.40726000001</v>
       </c>
       <c r="D19" s="22" t="n">
         <v>31750.26223</v>
@@ -2053,29 +1573,34 @@
         <v>131472.78868</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>209148.66248</v>
+        <v>211398.16721</v>
       </c>
       <c r="I19" s="22" t="n">
         <v>270980.49451</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>329407.72394</v>
+        <v>336903.3203500001</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>451368.51088</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>488569.33751</v>
+        <v>488640.50151</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>650580.5705599999</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>645838.13154</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>850503.14</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>19670.84768</v>
@@ -2090,32 +1615,37 @@
         <v>66069.34977</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>77082.23539999999</v>
+        <v>77082.23540000001</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>120121.29395</v>
+        <v>130268.10693</v>
       </c>
       <c r="I20" s="22" t="n">
         <v>172425.23108</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>209313.35419</v>
+        <v>213357.24089</v>
       </c>
       <c r="K20" s="22" t="n">
         <v>205545.4979</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>207624.76218</v>
+        <v>207642.76219</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>243596.23567</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>244198.58504</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>391600.692</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>2375.39711</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>4003.862</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>178.50784</v>
@@ -2210,16 +1750,16 @@
         <v>101.0446</v>
       </c>
       <c r="G23" s="22" t="n">
-        <v>507.9865799999999</v>
+        <v>507.98658</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>1615.47701</v>
+        <v>1617.11201</v>
       </c>
       <c r="I23" s="22" t="n">
         <v>1710.42333</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>1728.02582</v>
+        <v>1729.01562</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>2358.99998</v>
@@ -2228,14 +1768,19 @@
         <v>5718.96104</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>4942.92116</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>4942.921159999999</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>8365.075000000001</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>545.9760799999999</v>
@@ -2265,17 +1810,22 @@
         <v>8192.910899999999</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>14286.08223</v>
+        <v>14475.25245</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>9820.45984</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>10060.20843</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>15476.716</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>3775.64741</v>
@@ -2284,7 +1834,7 @@
         <v>3213.1161</v>
       </c>
       <c r="E25" s="22" t="n">
-        <v>3697.752559999999</v>
+        <v>3697.75256</v>
       </c>
       <c r="F25" s="21" t="n">
         <v>6078.779939999999</v>
@@ -2293,13 +1843,13 @@
         <v>9237.80495</v>
       </c>
       <c r="H25" s="21" t="n">
-        <v>19185.13265</v>
+        <v>19992.4602</v>
       </c>
       <c r="I25" s="22" t="n">
         <v>26153.03608</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>36320.63054</v>
+        <v>38152.93134</v>
       </c>
       <c r="K25" s="22" t="n">
         <v>49813.88479</v>
@@ -2308,14 +1858,19 @@
         <v>58149.5311</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>58630.03041</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>58873.41473</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>65385.484</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>3506.62805</v>
@@ -2327,35 +1882,40 @@
         <v>3511.46605</v>
       </c>
       <c r="F26" s="21" t="n">
-        <v>5037.00479</v>
+        <v>5037.004789999999</v>
       </c>
       <c r="G26" s="22" t="n">
         <v>8140.51921</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>16909.6385</v>
+        <v>17716.96605</v>
       </c>
       <c r="I26" s="22" t="n">
         <v>23180.66387</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>33211.19414</v>
+        <v>35043.49494</v>
       </c>
       <c r="K26" s="22" t="n">
-        <v>45695.42375</v>
+        <v>45695.42374999999</v>
       </c>
       <c r="L26" s="22" t="n">
-        <v>50232.42058</v>
+        <v>50232.42058000001</v>
       </c>
       <c r="M26" s="22" t="n">
-        <v>49779.37027</v>
-      </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+        <v>50022.75459</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>57313.884</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>6994.3819</v>
@@ -2379,23 +1939,28 @@
         <v>13041.27586</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>17323.37411</v>
+        <v>17802.79623</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>27236.22235</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>30310.87551</v>
+        <v>30311.02772</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>33677.23493</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>35367.70043</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>42699.458</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>4274.79412</v>
@@ -2407,7 +1972,7 @@
         <v>3454.31588</v>
       </c>
       <c r="F28" s="21" t="n">
-        <v>5536.8999</v>
+        <v>5536.899899999999</v>
       </c>
       <c r="G28" s="22" t="n">
         <v>8868.148210000001</v>
@@ -2428,14 +1993,19 @@
         <v>13907.48404</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>9263.216190000001</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>10892.51505</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>12494.613</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>45.82095</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>20.821</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>2073.89328</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>8130.58343</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>374.566</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>26.67981</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>85.40433999999999</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>230.594</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>619.01469</v>
@@ -2576,26 +2161,31 @@
         <v>3200.39961</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>6906.45881</v>
+        <v>6906.458809999999</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>9656.28479</v>
+        <v>10135.70691</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>11264.68435</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>14778.06712</v>
+        <v>14778.21933</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>16152.21002</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>16213.37666</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>29574.912</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>95.66</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>91.708</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>76628.72784000001</v>
@@ -2724,38 +2329,43 @@
         <v>39921.68990999999</v>
       </c>
       <c r="E36" s="23" t="n">
-        <v>45222.47109000001</v>
+        <v>45222.47109</v>
       </c>
       <c r="F36" s="33" t="n">
-        <v>72521.55239999999</v>
+        <v>72521.5524</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>136649.48886</v>
+        <v>136657.78275</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>218761.47509</v>
+        <v>224096.96622</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>248255.90442</v>
+        <v>248280.35493</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>328167.19785</v>
+        <v>339083.42722</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>422513.17526</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>582862.82449</v>
+        <v>582956.3195399999</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>660457.43597</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>666865.1913899999</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>960204.73</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>20758.25259</v>
@@ -2770,32 +2380,37 @@
         <v>29007.83148</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>57722.7813</v>
+        <v>57731.07519</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>80100.92153000001</v>
+        <v>82751.50248000001</v>
       </c>
       <c r="I37" s="22" t="n">
         <v>96909.02117000001</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>133194.63577</v>
+        <v>137040.23059</v>
       </c>
       <c r="K37" s="22" t="n">
         <v>172740.82276</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>271780.44079</v>
+        <v>271802.7575299999</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>266513.5225</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>269979.44328</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>383548.694</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>9488.596519999999</v>
@@ -2813,41 +2428,46 @@
         <v>19678.65689</v>
       </c>
       <c r="H38" s="21" t="n">
-        <v>30161.79681</v>
+        <v>32541.87494</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>36978.50092999999</v>
+        <v>36978.50093</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>45334.26445</v>
+        <v>46852.55082999999</v>
       </c>
       <c r="K38" s="22" t="n">
-        <v>56756.55829</v>
+        <v>56756.55829000001</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>75669.80042</v>
+        <v>75670.87991999999</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>105049.55632</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>105361.49153</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>148010.249</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>9919.319820000001</v>
       </c>
       <c r="D39" s="22" t="n">
-        <v>4773.96739</v>
+        <v>4773.967390000001</v>
       </c>
       <c r="E39" s="22" t="n">
         <v>5397.3763</v>
       </c>
       <c r="F39" s="21" t="n">
-        <v>6068.820940000001</v>
+        <v>6068.82094</v>
       </c>
       <c r="G39" s="22" t="n">
         <v>9432.755300000001</v>
@@ -2859,7 +2479,7 @@
         <v>20014.69282</v>
       </c>
       <c r="J39" s="21" t="n">
-        <v>19947.72066</v>
+        <v>23632.73606</v>
       </c>
       <c r="K39" s="22" t="n">
         <v>28750.00479</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>62921.90542</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>111851.935</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>20102.47628</v>
@@ -2884,7 +2509,7 @@
         <v>6060.69389</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>7114.278899999999</v>
+        <v>7114.2789</v>
       </c>
       <c r="F40" s="21" t="n">
         <v>10995.68455</v>
@@ -2893,29 +2518,34 @@
         <v>25133.78877</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>49376.06515000001</v>
+        <v>49376.06514999999</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>53525.48578</v>
+        <v>53549.93629</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>73831.94745000001</v>
+        <v>73992.50999999999</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>88314.10741999999</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>118502.23465</v>
+        <v>118563.73068</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>144644.66396</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>146181.59785</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>155231.049</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>849.90804</v>
@@ -2933,29 +2563,34 @@
         <v>1793.35675</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>2283.67064</v>
+        <v>2508.68294</v>
       </c>
       <c r="I41" s="22" t="n">
         <v>2861.91164</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>2347.94786</v>
+        <v>3249.88985</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>3617.724769999999</v>
+        <v>3617.72477</v>
       </c>
       <c r="L41" s="22" t="n">
         <v>4597.47489</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>6982.613480000001</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>7010.97694</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>15315.716</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>352.57865</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>15862.75324</v>
@@ -3013,29 +2653,34 @@
         <v>23158.16515</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>42325.12282</v>
+        <v>42404.94257</v>
       </c>
       <c r="I43" s="22" t="n">
         <v>37966.29208</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>53596.33001000001</v>
+        <v>54401.15824</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>72333.95723</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>68574.36835999998</v>
+        <v>68582.97113999999</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>74345.17429</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>75409.77637000001</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>146247.087</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>422.54354</v>
@@ -3050,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="23" t="n">
-        <v>7738.281089999999</v>
+        <v>7738.28109</v>
       </c>
       <c r="H44" s="33" t="n">
         <v>19922.97684</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>21939.76314</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>23813.805</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>422.54354</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>21659.76314</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>23813.805</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,15 +2850,20 @@
       <c r="M47" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>875.57981</v>
+        <v>875.5798100000001</v>
       </c>
       <c r="D48" s="46" t="n">
         <v>87.60041</v>
@@ -3228,14 +2893,19 @@
         <v>10351.92546</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>6253.01422</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>6303.611329999999</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>10710.367</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>872.8356</v>
@@ -3268,14 +2938,19 @@
         <v>10251.99343</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>5802.57875</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>5805.025860000001</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>10307.98</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>2.74421</v>
@@ -3308,14 +2983,19 @@
         <v>99.93203</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>450.43547</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>498.58547</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>402.387</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>10811.10842</v>
@@ -3330,72 +3010,82 @@
         <v>13113.94923</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>22750.64453</v>
+        <v>22767.43371</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>39124.91008</v>
+        <v>40381.89829</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>48347.07845</v>
+        <v>48395.94377</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>53649.74083</v>
+        <v>54341.71316</v>
       </c>
       <c r="K51" s="46" t="n">
-        <v>63093.97173999999</v>
+        <v>63093.97174</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>85321.56294</v>
+        <v>85354.47607999999</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>95380.25444</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>96384.42979000001</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>109346.931</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
-        <v>9090.404629999999</v>
+        <v>9090.404630000001</v>
       </c>
       <c r="D52" s="22" t="n">
-        <v>5720.10148</v>
+        <v>5720.101479999999</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>7492.68342</v>
+        <v>7492.683419999999</v>
       </c>
       <c r="F52" s="21" t="n">
         <v>12161.56782</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>21186.6601</v>
+        <v>21203.44928</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>34755.24274</v>
+        <v>35978.92200999999</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>41555.65699</v>
+        <v>41604.52231</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>45797.01745</v>
+        <v>46266.79008999999</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>55108.28389</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>74860.71436</v>
+        <v>74893.6275</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>76538.05259000001</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>77518.07761000001</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>93829.057</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>7.52945</v>
@@ -3422,20 +3112,25 @@
         <v>1122.11552</v>
       </c>
       <c r="K53" s="22" t="n">
-        <v>637.6099900000002</v>
+        <v>637.60999</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>605.1835199999999</v>
+        <v>605.18352</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>342.76554</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>342.40554</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>77.13500000000001</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>265.16824</v>
@@ -3450,7 +3145,7 @@
         <v>65.80311</v>
       </c>
       <c r="G54" s="22" t="n">
-        <v>97.25161999999999</v>
+        <v>97.25162000000002</v>
       </c>
       <c r="H54" s="21" t="n">
         <v>255.60261</v>
@@ -3459,63 +3154,73 @@
         <v>52.05665</v>
       </c>
       <c r="J54" s="21" t="n">
-        <v>106.72975</v>
+        <v>73.11307000000001</v>
       </c>
       <c r="K54" s="22" t="n">
         <v>306.67648</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>828.1798700000002</v>
+        <v>828.1798700000001</v>
       </c>
       <c r="M54" s="22" t="n">
         <v>4418.28295</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>5354.831</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>364.17685</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>59.90896000000001</v>
+        <v>59.90896</v>
       </c>
       <c r="E55" s="22" t="n">
         <v>202.48172</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>498.6041199999999</v>
+        <v>498.60412</v>
       </c>
       <c r="G55" s="22" t="n">
         <v>661.75873</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>2264.3917</v>
+        <v>2264.58896</v>
       </c>
       <c r="I55" s="22" t="n">
         <v>2861.35847</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>2931.63671</v>
+        <v>2942.87144</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>3462.62227</v>
+        <v>3462.622269999999</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>5024.008609999999</v>
+        <v>5024.008610000001</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>5009.2206</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>5033.73093</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>4839.281</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>990.232</v>
@@ -3539,7 +3244,7 @@
         <v>3229.88603</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>3114.686110000001</v>
+        <v>3266.29578</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>2774.18061</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>4320.31653</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>4210.954</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>91.26935</v>
@@ -3573,16 +3283,16 @@
         <v>120.069</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>519.41742</v>
+        <v>544.37896</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>609.47711</v>
+        <v>609.4771100000002</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>547.53747</v>
+        <v>640.5094399999999</v>
       </c>
       <c r="K57" s="22" t="n">
-        <v>775.8890600000001</v>
+        <v>775.88906</v>
       </c>
       <c r="L57" s="22" t="n">
         <v>1253.28382</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>1208.51128</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>1008.507</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>27.54832</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>26.948</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>2.3279</v>
@@ -3653,7 +3373,7 @@
         <v>16.37763</v>
       </c>
       <c r="H59" s="21" t="n">
-        <v>17.21517</v>
+        <v>25.36531</v>
       </c>
       <c r="I59" s="22" t="n">
         <v>0.66962</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>3515.55663</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,52 +3434,62 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
-        <v>93542.44903999999</v>
+        <v>93542.44904000001</v>
       </c>
       <c r="D61" s="36" t="n">
         <v>52266.18712</v>
       </c>
       <c r="E61" s="36" t="n">
-        <v>73684.76524000001</v>
+        <v>73684.76523999999</v>
       </c>
       <c r="F61" s="37" t="n">
         <v>251855.36541</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>346983.32437</v>
+        <v>346985.1493699999</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>481540.37697</v>
+        <v>484523.84711</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>576339.0617300001</v>
+        <v>577451.60906</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>631909.63929</v>
+        <v>643388.9860800001</v>
       </c>
       <c r="K61" s="36" t="n">
-        <v>722626.0086700001</v>
+        <v>722626.00867</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>861949.49087</v>
+        <v>862101.82088</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>954335.8438299999</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>961260.8754700001</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>1015891.586</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>2139.62185</v>
@@ -3763,7 +3498,7 @@
         <v>11.04041</v>
       </c>
       <c r="E62" s="36" t="n">
-        <v>38.85511999999999</v>
+        <v>38.85512</v>
       </c>
       <c r="F62" s="37" t="n">
         <v>848.0129899999999</v>
@@ -3772,13 +3507,13 @@
         <v>1121.41543</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>6262.80583</v>
+        <v>6263.70583</v>
       </c>
       <c r="I62" s="36" t="n">
         <v>2688.51047</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>2101.91756</v>
+        <v>2108.63827</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>1789.41837</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>1447.46206</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>1555.307</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>872.2625300000001</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>7.521</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>1216.9272</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>50.43212</v>
@@ -3972,29 +3732,34 @@
         <v>84.14832000000001</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>384.88471</v>
+        <v>385.78471</v>
       </c>
       <c r="I67" s="22" t="n">
         <v>586.2797</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>586.63756</v>
+        <v>593.3582700000001</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>485.84137</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>357.7035099999999</v>
+        <v>357.70351</v>
       </c>
       <c r="M67" s="22" t="n">
         <v>1447.46206</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>1547.786</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>433.18417</v>
@@ -4061,20 +3831,25 @@
         <v>136.62651</v>
       </c>
       <c r="K69" s="36" t="n">
-        <v>475.8260799999999</v>
+        <v>475.82608</v>
       </c>
       <c r="L69" s="36" t="n">
-        <v>735.8451499999999</v>
+        <v>751.8721499999999</v>
       </c>
       <c r="M69" s="36" t="n">
         <v>4089.02925</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>1268.204</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>400.0497</v>
@@ -4104,17 +3879,22 @@
         <v>53.67034</v>
       </c>
       <c r="L70" s="22" t="n">
-        <v>40.58141000000001</v>
+        <v>56.60841000000001</v>
       </c>
       <c r="M70" s="22" t="n">
         <v>3616.87351</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>794.961</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>20.13447</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>2.5</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>13</v>
@@ -4252,7 +4047,7 @@
         <v>155.80565</v>
       </c>
       <c r="H74" s="21" t="n">
-        <v>99.37281</v>
+        <v>99.37281000000002</v>
       </c>
       <c r="I74" s="22" t="n">
         <v>2046.69729</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>469.65574</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>469.656</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>3637.24855</v>
@@ -4372,7 +4182,7 @@
         <v>162815.31486</v>
       </c>
       <c r="H77" s="33" t="n">
-        <v>173007.48531</v>
+        <v>173010.38775</v>
       </c>
       <c r="I77" s="23" t="n">
         <v>170932.60336</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>187458.42164</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>99646.567</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>2424.65</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>654.4</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>676.9</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>1205.89692</v>
@@ -4492,7 +4317,7 @@
         <v>37388.06022</v>
       </c>
       <c r="H80" s="21" t="n">
-        <v>26125.17361</v>
+        <v>26128.07605</v>
       </c>
       <c r="I80" s="22" t="n">
         <v>19833.50817</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>19173.69935</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>68427.592</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>25.5</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>55</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>49.00163</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>168300.38913</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>30669.964</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>16.8</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>615.06684</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>615.067</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>529.678</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,52 +4649,62 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>75153.36083000001</v>
       </c>
       <c r="D88" s="23" t="n">
-        <v>42280.51315000001</v>
+        <v>42280.51315</v>
       </c>
       <c r="E88" s="23" t="n">
         <v>65018.88795</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>93213.39969999999</v>
+        <v>93213.39970000001</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>163568.36927</v>
+        <v>163570.19427</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>259515.30927</v>
+        <v>262445.26395</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>339964.83713</v>
+        <v>341077.38446</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>397518.36979</v>
+        <v>404238.05331</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>463554.1231</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>579906.3178300001</v>
+        <v>579994.71594</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>663425.0129600001</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>669783.5573500001</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>801088.9399999999</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>11973.77694</v>
@@ -4852,29 +4722,34 @@
         <v>24893.84154</v>
       </c>
       <c r="H89" s="21" t="n">
-        <v>46313.23323000001</v>
+        <v>46313.23323</v>
       </c>
       <c r="I89" s="22" t="n">
         <v>77362.65665</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>86758.17836000001</v>
+        <v>87064.91049000001</v>
       </c>
       <c r="K89" s="22" t="n">
         <v>98437.40651999999</v>
       </c>
       <c r="L89" s="22" t="n">
-        <v>115034.82399</v>
+        <v>115049.82399</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>154375.32658</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>155907.45279</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>183586.692</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>6022.42624</v>
@@ -4892,29 +4767,34 @@
         <v>11200.97755</v>
       </c>
       <c r="H90" s="21" t="n">
-        <v>27083.78564</v>
+        <v>27639.791</v>
       </c>
       <c r="I90" s="22" t="n">
         <v>39542.06611</v>
       </c>
       <c r="J90" s="21" t="n">
-        <v>50050.01912999999</v>
+        <v>51003.51629</v>
       </c>
       <c r="K90" s="22" t="n">
-        <v>58451.94912</v>
+        <v>58451.94911999999</v>
       </c>
       <c r="L90" s="22" t="n">
         <v>66765.74834000001</v>
       </c>
       <c r="M90" s="22" t="n">
-        <v>98075.01492000002</v>
-      </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+        <v>98075.75318000001</v>
+      </c>
+      <c r="N90" s="22" t="n">
+        <v>105664.033</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>25178.69824</v>
@@ -4932,13 +4812,13 @@
         <v>26664.45551</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>64020.26578</v>
+        <v>64384.06384</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>65501.34917</v>
+        <v>65601.34917</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>92900.39491</v>
+        <v>93212.80127</v>
       </c>
       <c r="K91" s="22" t="n">
         <v>100066.48266</v>
@@ -4947,14 +4827,19 @@
         <v>118501.54378</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>136412.06169</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>136460.05822</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>135560.16</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>53547.5882</v>
@@ -4972,35 +4857,40 @@
         <v>81300.26728</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>132966.35287</v>
+        <v>138258.36485</v>
       </c>
       <c r="I92" s="22" t="n">
         <v>164969.75846</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>178536.1955</v>
+        <v>185001.54462</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>211257.80293</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>258330.99536</v>
+        <v>258386.91545</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>299270.46089</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>299644.35499</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>340590.847</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>14236.4941</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>8397.895460000002</v>
+        <v>8397.89546</v>
       </c>
       <c r="E93" s="22" t="n">
         <v>10652.71738</v>
@@ -5009,32 +4899,37 @@
         <v>14418.12476</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>24575.10619000001</v>
+        <v>24575.10619</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>39562.64487</v>
+        <v>39601.52861</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>44150.29734999999</v>
+        <v>45023.19479000001</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>51363.50292</v>
+        <v>52242.45722</v>
       </c>
       <c r="K93" s="22" t="n">
-        <v>63686.7858</v>
+        <v>63686.78580000001</v>
       </c>
       <c r="L93" s="22" t="n">
         <v>81042.95344</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>92786.86361</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>93631.29109999999</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>130902.3</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>11581.96391</v>
@@ -5049,32 +4944,37 @@
         <v>10157.94895</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>20466.90902</v>
+        <v>20468.73402</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>32860.75683</v>
+        <v>33144.96926</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>37476.37766</v>
+        <v>37616.02755</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>43724.54602</v>
+        <v>45375.24362000001</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>55728.61915999999</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>69349.06161</v>
+        <v>69376.89737000001</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>80293.09284</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>81924.07043000001</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>102126.008</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>2029.96054</v>
@@ -5098,7 +4998,7 @@
         <v>24809.63849</v>
       </c>
       <c r="J95" s="21" t="n">
-        <v>24646.29858</v>
+        <v>25145.27461</v>
       </c>
       <c r="K95" s="22" t="n">
         <v>26076.79379</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>30997.1254</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>61147.243</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>54671.82039</v>
@@ -5129,38 +5034,43 @@
         <v>49558.54898</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>76634.55871000001</v>
+        <v>76634.55871</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>132153.51682</v>
+        <v>135758.47371</v>
       </c>
       <c r="I96" s="22" t="n">
         <v>152138.07783</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>168057.78436</v>
+        <v>175243.22732</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>205016.53602</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>245328.31746</v>
+        <v>245338.6752</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>296583.63565</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>297050.0046</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>349827.745</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>4548.34583</v>
       </c>
       <c r="D97" s="22" t="n">
-        <v>9164.787530000001</v>
+        <v>9164.78753</v>
       </c>
       <c r="E97" s="22" t="n">
         <v>20588.99538</v>
@@ -5178,23 +5088,28 @@
         <v>35942.64663</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>37003.66601</v>
+        <v>39842.17979</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>52500.76249</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>80726.28919999998</v>
+        <v>80726.2892</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>60803.07345</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>63197.82661</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>79140.79300000001</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>705.9272199999999</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>6995.62923</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>12198.609</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>8352.27094</v>
@@ -5252,29 +5172,34 @@
         <v>12192.89224</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>32361.51165</v>
+        <v>32366.56237</v>
       </c>
       <c r="I99" s="23" t="n">
         <v>39492.63486</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>42875.04272999999</v>
+        <v>44131.17101000001</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>55303.60704</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>78522.59345</v>
+        <v>78546.76694</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>77702.63095000001</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>78012.91215</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>94070.226</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>2664.86672</v>
@@ -5283,7 +5208,7 @@
         <v>2447.47071</v>
       </c>
       <c r="E100" s="22" t="n">
-        <v>3172.15844</v>
+        <v>3172.158440000001</v>
       </c>
       <c r="F100" s="21" t="n">
         <v>4370.71713</v>
@@ -5298,7 +5223,7 @@
         <v>13758.03454</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>12883.06835</v>
+        <v>14371.56291</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>14505.69882</v>
@@ -5307,14 +5232,19 @@
         <v>21170.96848</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>21924.04158</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>22394.35211</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>19101.93</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>65</v>
@@ -5349,18 +5279,23 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
-        <v>72.96724</v>
+        <v>72.96723999999999</v>
       </c>
       <c r="D102" s="22" t="n">
-        <v>44.36224000000001</v>
+        <v>44.36224</v>
       </c>
       <c r="E102" s="22" t="n">
         <v>70.77810000000001</v>
@@ -5378,23 +5313,28 @@
         <v>252.4343</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>270.61815</v>
+        <v>273.1491</v>
       </c>
       <c r="K102" s="22" t="n">
-        <v>294.5818399999999</v>
+        <v>294.58184</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>288.61718</v>
+        <v>298.66106</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>306.5393</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>319.65061</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>948.998</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>80.65738999999999</v>
@@ -5418,23 +5358,28 @@
         <v>2410.7179</v>
       </c>
       <c r="J103" s="21" t="n">
-        <v>2136.47636</v>
+        <v>2672.84972</v>
       </c>
       <c r="K103" s="22" t="n">
         <v>2721.20763</v>
       </c>
       <c r="L103" s="22" t="n">
-        <v>4254.29447</v>
+        <v>4269.18507</v>
       </c>
       <c r="M103" s="22" t="n">
         <v>5429.15622</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>12065.124</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>12275.11437</v>
@@ -5452,13 +5397,13 @@
         <v>12268.3853</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>22792.67458</v>
+        <v>22794.64923</v>
       </c>
       <c r="I104" s="22" t="n">
         <v>23586.03631</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>24919.88594</v>
+        <v>25017.5895</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>32356.84564</v>
@@ -5467,17 +5412,22 @@
         <v>41989.42206</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>47496.36596</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>47527.75648</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>64054.817</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
-        <v>980.72185</v>
+        <v>980.7218500000001</v>
       </c>
       <c r="D105" s="22" t="n">
         <v>713.9862099999999</v>
@@ -5489,35 +5439,40 @@
         <v>788.59075</v>
       </c>
       <c r="G105" s="22" t="n">
-        <v>741.2301900000001</v>
+        <v>741.23019</v>
       </c>
       <c r="H105" s="21" t="n">
-        <v>15983.11921</v>
+        <v>15994.69426</v>
       </c>
       <c r="I105" s="22" t="n">
         <v>19552.02195</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>22294.1379</v>
+        <v>22559.84438</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>37762.32508</v>
       </c>
       <c r="L105" s="22" t="n">
-        <v>49688.96750999999</v>
+        <v>49688.96751</v>
       </c>
       <c r="M105" s="22" t="n">
         <v>49620.16095</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>46856.744</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
-        <v>7787.056629999999</v>
+        <v>7787.056630000001</v>
       </c>
       <c r="D106" s="22" t="n">
         <v>3174.6995</v>
@@ -5529,32 +5484,37 @@
         <v>4443.98137</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>7726.98658</v>
+        <v>7726.986579999999</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>19420.85096</v>
+        <v>19429.34994</v>
       </c>
       <c r="I106" s="22" t="n">
         <v>20069.49291</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>22606.00496</v>
+        <v>23740.68559</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>32343.07929</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>39255.36255</v>
+        <v>39256.12354000001</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>48140.20426999999</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>48344.73543</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>52059.716</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>1066.57121</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>3102.329</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>280.01998</v>
@@ -5615,7 +5580,7 @@
         <v>38.20600999999999</v>
       </c>
       <c r="I108" s="23" t="n">
-        <v>40.30601</v>
+        <v>40.30600999999999</v>
       </c>
       <c r="J108" s="33" t="n">
         <v>306.40565</v>
@@ -5624,17 +5589,22 @@
         <v>632.2143599999999</v>
       </c>
       <c r="L108" s="23" t="n">
-        <v>863.3454399999999</v>
+        <v>863.3454400000001</v>
       </c>
       <c r="M108" s="23" t="n">
         <v>204.92439</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>278.30083</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>21.4673</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>7.01288</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>5.364</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>19.74815</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>4.73949</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>202.651</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>3539.09688</v>
@@ -5852,29 +5847,34 @@
         <v>6438.816789999999</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>7914.460049999999</v>
+        <v>7959.12235</v>
       </c>
       <c r="I114" s="23" t="n">
         <v>14564.53153</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>8827.332050000001</v>
+        <v>12324.14633</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>17602.25051</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>17465.94058</v>
+        <v>17489.67199</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>17060.22077</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>17307.99959</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>15160.089</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>3538.06588</v>
@@ -5886,35 +5886,40 @@
         <v>1001.83664</v>
       </c>
       <c r="F115" s="21" t="n">
-        <v>4872.60366</v>
+        <v>4872.603659999999</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>6437.785789999999</v>
+        <v>6437.78579</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>7913.32142</v>
+        <v>7957.98372</v>
       </c>
       <c r="I115" s="22" t="n">
         <v>14563.50053</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>8826.30105</v>
+        <v>12323.11533</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>17600.74341</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>17464.90958</v>
+        <v>17488.64099</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>17059.18977</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>17306.96859</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>15159.058</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>1.031</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>1.031</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>7.64584</v>
@@ -5981,20 +5991,25 @@
         <v>8841.038349999999</v>
       </c>
       <c r="K117" s="23" t="n">
-        <v>8247.419800000001</v>
+        <v>8247.4198</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>2979.17927</v>
+        <v>2979.179270000001</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>2948.14181</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>2956.56904</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>3100.389</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.44697</v>
@@ -6027,14 +6042,19 @@
         <v>0.7362000000000001</v>
       </c>
       <c r="M118" s="22" t="n">
-        <v>0.2952</v>
-      </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+        <v>4.54126</v>
+      </c>
+      <c r="N118" s="22" t="n">
+        <v>5.007</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>1.44681</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>2.57308</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>10.718</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>72.9927</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>194.441</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>1.57089</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>583.21791</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>608.64</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>4.18117</v>
@@ -6218,7 +6258,7 @@
         <v>4.18117</v>
       </c>
       <c r="J123" s="21" t="n">
-        <v>6326.8945</v>
+        <v>6326.894499999999</v>
       </c>
       <c r="K123" s="22" t="n">
         <v>6126.92563</v>
@@ -6227,14 +6267,19 @@
         <v>23.87036</v>
       </c>
       <c r="M123" s="22" t="n">
-        <v>24.38467</v>
-      </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+        <v>28.56584</v>
+      </c>
+      <c r="N123" s="22" t="n">
+        <v>9.095000000000001</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,15 +6404,20 @@
       <c r="M126" s="22" t="n">
         <v>2264.67825</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>2272.488</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
-        <v>291314.9733300001</v>
+        <v>291314.97333</v>
       </c>
       <c r="D127" s="23" t="n">
         <v>170042.94523</v>
@@ -6366,32 +6426,35 @@
         <v>220586.88997</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>523808.8821400001</v>
+        <v>523808.88214</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>805132.2195899999</v>
+        <v>805159.2704800001</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>1242262.16653</v>
+        <v>1264301.46566</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>1503735.73091</v>
+        <v>1504923.25323</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1766679.46823</v>
+        <v>1816395.50116</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>2153107.76884</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>2569444.79571</v>
+        <v>2570103.04314</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>2967461.51118</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>2983040.09535</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>3844191.77</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>013-Plant propagation</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>125650.40956</v>
@@ -6501,32 +6578,37 @@
         <v>336863.6191</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>480255.8115500001</v>
+        <v>480277.68276</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>608706.45452</v>
+        <v>625721.25154</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>759846.1633200001</v>
+        <v>760665.1889600001</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>889175.4142999999</v>
+        <v>917476.22454</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>1069890.86402</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>1286021.64215</v>
+        <v>1286748.45646</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1515231.01685</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1524836.80004</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>2119413.076</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>27952.25763</v>
@@ -6544,29 +6626,34 @@
         <v>120346.22923</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>182978.30911</v>
+        <v>186478.30911</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>231743.88454</v>
+        <v>232561.75754</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>265995.27039</v>
+        <v>281410.29739</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>283105.39056</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>352749.6021</v>
+        <v>352749.60211</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>403772.21054</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>405939.23988</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>595042.423</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>25359.81916</v>
@@ -6584,29 +6671,34 @@
         <v>115407.81736</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>174617.48311</v>
+        <v>178117.48311</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>217877.82679</v>
+        <v>218695.69979</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>255402.74191</v>
+        <v>270817.76891</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>266968.74412</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>322323.20271</v>
+        <v>322323.2027199999</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>381542.62895</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>383706.51719</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>555524.679</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>1037.68642</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>1331.98897</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>677.337</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>135.37551</v>
@@ -6667,7 +6764,7 @@
         <v>405.48905</v>
       </c>
       <c r="I136" s="22" t="n">
-        <v>638.0570000000001</v>
+        <v>638.0569999999999</v>
       </c>
       <c r="J136" s="21" t="n">
         <v>525.41985</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>213.02185</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>1690.12756</v>
@@ -6710,7 +6812,7 @@
         <v>11639.64534</v>
       </c>
       <c r="J137" s="21" t="n">
-        <v>8106.310460000001</v>
+        <v>8106.31046</v>
       </c>
       <c r="K137" s="22" t="n">
         <v>11901.50453</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>18954.3616</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>35892.1</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6919,14 +7046,19 @@
         <v>1757.67024</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>2156.25287</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>2159.39397</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>2948.307</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>61221.76214</v>
@@ -6941,32 +7073,37 @@
         <v>105302.17524</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>172982.27025</v>
+        <v>173002.99146</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>265491.51638</v>
+        <v>277498.57627</v>
       </c>
       <c r="I143" s="46" t="n">
         <v>336681.11438</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>398021.53754</v>
+        <v>410210.52065</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>528009.4256000001</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>571473.52193</v>
+        <v>571879.7066599999</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>683393.00981</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>687470.2763799998</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>988247.042</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>46312.31713</v>
@@ -6975,44 +7112,49 @@
         <v>32013.62473</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>51444.78806</v>
+        <v>51444.78805999999</v>
       </c>
       <c r="F144" s="24" t="n">
         <v>79336.05467</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>115189.1938</v>
+        <v>115209.91501</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>180086.15744</v>
+        <v>191096.51309</v>
       </c>
       <c r="I144" s="25" t="n">
         <v>239849.03896</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>283348.7918100001</v>
+        <v>294510.99684</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>386213.7932200001</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>409406.86378</v>
+        <v>409811.98569</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>527124.20713</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>524481.75984</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>763286.8100000001</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>11886.08907</v>
       </c>
       <c r="D145" s="25" t="n">
-        <v>9214.790129999999</v>
+        <v>9214.790130000001</v>
       </c>
       <c r="E145" s="25" t="n">
         <v>19483.39923</v>
@@ -7024,13 +7166,13 @@
         <v>45752.59781</v>
       </c>
       <c r="H145" s="24" t="n">
-        <v>74188.94192</v>
+        <v>75185.64615999999</v>
       </c>
       <c r="I145" s="25" t="n">
         <v>81025.78972</v>
       </c>
       <c r="J145" s="24" t="n">
-        <v>99930.86962</v>
+        <v>100300.9623</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>118810.87178</v>
@@ -7039,14 +7181,19 @@
         <v>147730.20378</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>131160.60432</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>138113.06818</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>173701.59</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>105.00962</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>58.83789</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>177.973</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>2918.34632</v>
@@ -7150,23 +7307,28 @@
         <v>15806.2857</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>14711.22611</v>
+        <v>15367.91151</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>18850.74095</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>14168.11829</v>
+        <v>14169.18111</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>25049.36047</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>24816.61047</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>51080.669</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>17395.86184</v>
@@ -7181,38 +7343,43 @@
         <v>112592.02733</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>126325.79919</v>
+        <v>126326.79919</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>66107.56616</v>
+        <v>66208.58864</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>97957.74479999999</v>
+        <v>97957.74480000001</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>108713.45279</v>
+        <v>109045.21359</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>131065.02549</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>184988.23395</v>
+        <v>185232.40989</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>222487.03844</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>224264.35297</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>296186.031</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>14516.87304</v>
       </c>
       <c r="D150" s="22" t="n">
-        <v>7694.1596</v>
+        <v>7694.159600000001</v>
       </c>
       <c r="E150" s="22" t="n">
         <v>12013.74188</v>
@@ -7221,7 +7388,7 @@
         <v>110194.71407</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>118777.26919</v>
+        <v>118778.26919</v>
       </c>
       <c r="H150" s="21" t="n">
         <v>57719.38821</v>
@@ -7230,23 +7397,28 @@
         <v>86041.91777000001</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>82835.32155000001</v>
+        <v>82861.36630000001</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>102807.92108</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>133560.94387</v>
+        <v>133790.01578</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>156512.29079</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>157932.50203</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>208175.709</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>38.609</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,15 +7498,20 @@
       <c r="M152" s="22" t="n">
         <v>34.18</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
-        <v>944.8668100000001</v>
+        <v>944.86681</v>
       </c>
       <c r="D153" s="22" t="n">
         <v>545.56309</v>
@@ -7344,29 +7526,34 @@
         <v>2013.67836</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>2893.86883</v>
+        <v>2994.89131</v>
       </c>
       <c r="I153" s="22" t="n">
         <v>4854.28938</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>6435.65967</v>
+        <v>6741.163340000001</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>7832.58843</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>14493.6342</v>
+        <v>14506.23783</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>21423.18855</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>21457.93223</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>26178.197</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>1934.12199</v>
@@ -7378,10 +7565,10 @@
         <v>175.56881</v>
       </c>
       <c r="F154" s="21" t="n">
-        <v>710.28705</v>
+        <v>710.2870499999999</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>4939.41494</v>
+        <v>4939.414940000001</v>
       </c>
       <c r="H154" s="21" t="n">
         <v>3870.76763</v>
@@ -7390,23 +7577,28 @@
         <v>4849.814</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>17085.80634</v>
+        <v>17086.01872</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>18001.42314</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>36896.50906</v>
+        <v>36899.00946</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>44517.3791</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>44839.73871</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>61793.516</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,18 +7633,23 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>10074.90171</v>
       </c>
       <c r="D156" s="23" t="n">
-        <v>4998.668650000001</v>
+        <v>4998.66865</v>
       </c>
       <c r="E156" s="23" t="n">
         <v>3889.02353</v>
@@ -7464,29 +7661,34 @@
         <v>42185.66293999999</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>58296.73346</v>
+        <v>59580.31557000001</v>
       </c>
       <c r="I156" s="23" t="n">
         <v>52219.30903</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>71912.52024000001</v>
+        <v>71989.94381</v>
       </c>
       <c r="K156" s="23" t="n">
-        <v>84575.21579</v>
+        <v>84575.21578999999</v>
       </c>
       <c r="L156" s="23" t="n">
         <v>119022.34554</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>140696.18557</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>141753.89506</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>153602.634</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>9337.90171</v>
@@ -7504,13 +7706,13 @@
         <v>39848.65653</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>53464.56673000001</v>
+        <v>54748.14884</v>
       </c>
       <c r="I157" s="22" t="n">
         <v>48224.42514</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>67945.20128000001</v>
+        <v>68022.62484999999</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>82960.86219</v>
@@ -7519,14 +7721,19 @@
         <v>117349.23939</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>140137.17258</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>141194.88207</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>152955.164</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>737</v>
@@ -7559,14 +7766,19 @@
         <v>1673.10615</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>559.0129900000001</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>559.0129899999999</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>647.47</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>14473.7833</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>16571.647</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>14473.7833</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>16571.647</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,15 +7903,20 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
-        <v>7904.830400000001</v>
+        <v>7904.8304</v>
       </c>
       <c r="D162" s="23" t="n">
         <v>2260.26563</v>
@@ -7701,32 +7928,37 @@
         <v>4442.27313</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>10584.6165</v>
+        <v>10584.7665</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>14013.66115</v>
+        <v>14133.80775</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>15370.87153</v>
+        <v>15372.02417</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>20663.17357</v>
+        <v>20918.82632</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>25691.2586</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>37384.61517</v>
+        <v>37460.58598</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>44474.84671</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>44892.66505</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>55266.17</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>3439.6126</v>
@@ -7741,32 +7973,37 @@
         <v>3205.80575</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>6587.471779999999</v>
+        <v>6587.621779999999</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>5540.48265</v>
+        <v>5574.90298</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>7498.622209999999</v>
+        <v>7499.038049999999</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>8662.430370000002</v>
+        <v>8744.16937</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>10766.86112</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>13373.20736</v>
+        <v>13422.85817</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>13078.55134</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>13249.44349</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>19719.591</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>2471.21597</v>
@@ -7775,7 +8012,7 @@
         <v>550.9243</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>732.24637</v>
+        <v>732.2463700000001</v>
       </c>
       <c r="F164" s="21" t="n">
         <v>956.5396800000001</v>
@@ -7784,29 +8021,34 @@
         <v>2027.43897</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>3341.72654</v>
+        <v>3427.45281</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>4243.671890000001</v>
+        <v>4244.40869</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>6334.863429999999</v>
+        <v>6508.77718</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>9596.793679999999</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>13445.62567</v>
+        <v>13449.37066</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>18755.1375</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>18993.63888</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>17427.115</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1741.10004</v>
@@ -7836,17 +8078,22 @@
         <v>5307.37752</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>10321.61379</v>
+        <v>10344.1888</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>12186.02525</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>12192.82706</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>17164.162</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>252.90179</v>
@@ -7879,17 +8126,22 @@
         <v>244.16835</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>455.13262</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>456.75562</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>955.302</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>743.6456000000001</v>
+        <v>743.6455999999999</v>
       </c>
       <c r="D167" s="23" t="n">
         <v>259.89367</v>
@@ -7910,23 +8162,28 @@
         <v>2698.08712</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>5165.61196</v>
+        <v>5189.196960000001</v>
       </c>
       <c r="K167" s="23" t="n">
-        <v>4074.339060000001</v>
+        <v>4074.33906</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>3165.30721</v>
+        <v>3165.79003</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>3937.2904</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>4066.87932</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>8927.133</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>3558.55413</v>
@@ -7956,17 +8213,22 @@
         <v>16560.33579</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>16186.21865</v>
+        <v>16187.7115</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>29488.79909</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>29606.56939</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>41905.289</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>2868.37745</v>
@@ -7996,17 +8258,22 @@
         <v>12928.67942</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>13126.75199</v>
+        <v>13127.76202</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>26425.76828</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>26413.94966</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>34503.604</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>1318.794</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>53.46892</v>
@@ -8070,7 +8342,7 @@
         <v>156.22384</v>
       </c>
       <c r="J171" s="21" t="n">
-        <v>422.5382</v>
+        <v>446.1232</v>
       </c>
       <c r="K171" s="22" t="n">
         <v>442.68269</v>
@@ -8079,14 +8351,19 @@
         <v>90.79427</v>
       </c>
       <c r="M171" s="22" t="n">
-        <v>874.25959</v>
-      </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+        <v>874.2595900000001</v>
+      </c>
+      <c r="N171" s="22" t="n">
+        <v>206.654</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>357.15024</v>
@@ -8144,13 +8426,13 @@
         <v>228.552</v>
       </c>
       <c r="H173" s="33" t="n">
-        <v>1224.4363</v>
+        <v>1227.42224</v>
       </c>
       <c r="I173" s="23" t="n">
         <v>1353.84882</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>5304.787139999999</v>
+        <v>5313.165150000001</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>1627.5473</v>
@@ -8161,12 +8443,17 @@
       <c r="M173" s="23" t="n">
         <v>1780.24766</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>4904.746</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>96.13553</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>448.2065</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>1074.789</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>261.01471</v>
@@ -8224,13 +8516,13 @@
         <v>212.20864</v>
       </c>
       <c r="H175" s="21" t="n">
-        <v>1224.4363</v>
+        <v>1227.42224</v>
       </c>
       <c r="I175" s="22" t="n">
         <v>1353.84782</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>3744.11283</v>
+        <v>3752.49084</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>1492.95534</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>1332.04116</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>3829.957</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>0</v>
@@ -8273,20 +8570,25 @@
         <v>696.0091100000001</v>
       </c>
       <c r="K176" s="23" t="n">
-        <v>84.56290000000001</v>
+        <v>84.5629</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>621.7549200000001</v>
+        <v>621.75492</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>216.40442</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>195.46042</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8304,7 +8606,7 @@
         <v>103.17032</v>
       </c>
       <c r="H177" s="21" t="n">
-        <v>402.3237000000001</v>
+        <v>402.3237</v>
       </c>
       <c r="I177" s="22" t="n">
         <v>3e-05</v>
@@ -8313,20 +8615,25 @@
         <v>693.2840600000001</v>
       </c>
       <c r="K177" s="22" t="n">
-        <v>70.46279000000001</v>
+        <v>70.46279</v>
       </c>
       <c r="L177" s="22" t="n">
         <v>613.89571</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>209.03999</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>188.09599</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>35.924</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>7.0515</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>629.013</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.31293</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,15 +8803,20 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
-        <v>34545.79731</v>
+        <v>34545.79730999999</v>
       </c>
       <c r="D182" s="23" t="n">
         <v>22079.09307</v>
@@ -8510,23 +8837,28 @@
         <v>294231.09377</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>313647.08188</v>
+        <v>329313.60335</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>429360.57635</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>513151.26013</v>
+        <v>513154.7188</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>559648.89572</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>561485.90162</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>612674.2560000001</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>28333.17393</v>
@@ -8541,7 +8873,7 @@
         <v>32469.37313</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>51733.76184</v>
+        <v>51733.76184000001</v>
       </c>
       <c r="H183" s="33" t="n">
         <v>123054.06613</v>
@@ -8550,7 +8882,7 @@
         <v>154212.18781</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>157184.5729</v>
+        <v>170589.74765</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>235284.06364</v>
@@ -8559,14 +8891,19 @@
         <v>289537.29616</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>312553.56098</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>313756.2469</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>391018.76</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>24941.23881</v>
@@ -8590,7 +8927,7 @@
         <v>141038.30316</v>
       </c>
       <c r="J184" s="21" t="n">
-        <v>146578.87314</v>
+        <v>159884.88919</v>
       </c>
       <c r="K184" s="22" t="n">
         <v>219746.48045</v>
@@ -8599,20 +8936,25 @@
         <v>272034.82878</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>295659.2706</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>296861.95652</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>380563.502</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>3812.2368</v>
       </c>
       <c r="D185" s="22" t="n">
-        <v>629.7129199999999</v>
+        <v>629.7129200000001</v>
       </c>
       <c r="E185" s="22" t="n">
         <v>1081.65004</v>
@@ -8630,7 +8972,7 @@
         <v>13398.31387</v>
       </c>
       <c r="J185" s="21" t="n">
-        <v>11787.51732</v>
+        <v>11900.45835</v>
       </c>
       <c r="K185" s="22" t="n">
         <v>17700.76279</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>20237.01766</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>12085.746</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>420.30168</v>
@@ -8661,7 +9008,7 @@
         <v>238.05314</v>
       </c>
       <c r="G186" s="22" t="n">
-        <v>317.47978</v>
+        <v>317.4797799999999</v>
       </c>
       <c r="H186" s="21" t="n">
         <v>2304.42043</v>
@@ -8670,7 +9017,7 @@
         <v>2113.69628</v>
       </c>
       <c r="J186" s="21" t="n">
-        <v>1181.81756</v>
+        <v>1195.59989</v>
       </c>
       <c r="K186" s="22" t="n">
         <v>2751.16915</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>3342.72728</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>1727.792</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>97.304</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>2153.96491</v>
@@ -8870,7 +9242,7 @@
         <v>3731.7262</v>
       </c>
       <c r="J191" s="33" t="n">
-        <v>6496.60403</v>
+        <v>8662.477779999999</v>
       </c>
       <c r="K191" s="23" t="n">
         <v>11644.93204</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>53563.77347</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>6227.831</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>187.9013</v>
@@ -8910,7 +9287,7 @@
         <v>3533.00294</v>
       </c>
       <c r="J192" s="21" t="n">
-        <v>2253.45823</v>
+        <v>4419.331980000001</v>
       </c>
       <c r="K192" s="22" t="n">
         <v>5916.988300000001</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>1568.87063</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>3458.156</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>292.405</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>51617.14447</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>2515.242</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>1673.65861</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>345.75837</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>222.433</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>2687.01146</v>
@@ -9116,23 +9518,28 @@
         <v>143269.47563</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>198504.49433</v>
+        <v>198507.953</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>182067.22957</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>182701.54955</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>204876.131</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>2110.73308</v>
       </c>
       <c r="D198" s="22" t="n">
-        <v>985.90658</v>
+        <v>985.9065800000001</v>
       </c>
       <c r="E198" s="22" t="n">
         <v>1524.50974</v>
@@ -9141,7 +9548,7 @@
         <v>3226.24887</v>
       </c>
       <c r="G198" s="22" t="n">
-        <v>6395.440619999999</v>
+        <v>6395.44062</v>
       </c>
       <c r="H198" s="21" t="n">
         <v>117008.27933</v>
@@ -9156,17 +9563,22 @@
         <v>136531.62573</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>144970.03227</v>
+        <v>144973.49094</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>122865.99097</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>123500.31095</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>125538.017</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>343.58257</v>
@@ -9276,17 +9698,22 @@
         <v>5116.29204</v>
       </c>
       <c r="L201" s="22" t="n">
-        <v>53015.23486</v>
+        <v>53015.23485999999</v>
       </c>
       <c r="M201" s="22" t="n">
         <v>58903.93098</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>77828.084</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>232.69581</v>
@@ -9356,17 +9788,22 @@
         <v>1621.55786</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>519.2272</v>
+        <v>519.2271999999999</v>
       </c>
       <c r="M203" s="22" t="n">
         <v>297.30762</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>1510.03</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>403.346</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>4879.12159</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>5130.871</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>403.346</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>4808.263809999999</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>5060.013</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>70.85778000000001</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>70.858</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>775.1410100000001</v>
@@ -9504,7 +9956,7 @@
         <v>762.87098</v>
       </c>
       <c r="H207" s="33" t="n">
-        <v>2376.54373</v>
+        <v>2376.543729999999</v>
       </c>
       <c r="I207" s="23" t="n">
         <v>1436.03353</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>4121.03322</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>4375.849</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>775.1410100000001</v>
@@ -9544,7 +10001,7 @@
         <v>762.87098</v>
       </c>
       <c r="H208" s="21" t="n">
-        <v>2376.54373</v>
+        <v>2376.543729999999</v>
       </c>
       <c r="I208" s="22" t="n">
         <v>1436.03353</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>4121.03322</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>4375.849</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>193.16</v>
@@ -9624,13 +10091,13 @@
         <v>1167.07348</v>
       </c>
       <c r="H210" s="33" t="n">
-        <v>726.5252999999999</v>
+        <v>726.5253</v>
       </c>
       <c r="I210" s="23" t="n">
         <v>1829.23266</v>
       </c>
       <c r="J210" s="33" t="n">
-        <v>1555.04741</v>
+        <v>1650.52038</v>
       </c>
       <c r="K210" s="23" t="n">
         <v>3366.50547</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>2464.17689</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>1044.561</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>193.16</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>2444.52021</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>1028.351</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9704,29 +10181,34 @@
         <v>262.34239</v>
       </c>
       <c r="H212" s="21" t="n">
-        <v>91.26495999999999</v>
+        <v>91.26496</v>
       </c>
       <c r="I212" s="22" t="n">
         <v>1495.31496</v>
       </c>
       <c r="J212" s="21" t="n">
-        <v>119.55025</v>
+        <v>215.02322</v>
       </c>
       <c r="K212" s="22" t="n">
         <v>197.74208</v>
       </c>
       <c r="L212" s="22" t="n">
-        <v>73.60169999999999</v>
+        <v>73.60170000000001</v>
       </c>
       <c r="M212" s="22" t="n">
         <v>19.65668</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>131118.76646</v>
@@ -9901,32 +10403,37 @@
         <v>145316.19768</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>256489.47372</v>
+        <v>256494.6534</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>368754.00323</v>
+        <v>373778.50534</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>449658.47382</v>
+        <v>450026.9705</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>563856.9720500001</v>
+        <v>569605.67327</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>653856.3284700001</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>770271.8934300001</v>
+        <v>770199.8678800002</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>892581.59861</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>896717.3936900001</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>1112104.438</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>101463.25653</v>
@@ -9941,16 +10448,16 @@
         <v>99205.57934</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>187362.382</v>
+        <v>187369.382</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>242264.49975</v>
+        <v>250647.83996</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>290985.22977</v>
+        <v>291005.22977</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>336322.74071</v>
+        <v>351667.64207</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>357948.98859</v>
@@ -9959,14 +10466,19 @@
         <v>430100.57551</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>489581.50482</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>491728.9048200001</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>512933.381</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>91822.12709000001</v>
@@ -9981,32 +10493,37 @@
         <v>107521.7665</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>188580.52307</v>
+        <v>188587.52307</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>238696.68709</v>
+        <v>246946.68709</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>291553.901</v>
+        <v>291573.901</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>339830.19649</v>
+        <v>355166.84649</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>362119.68628</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>430526.98008</v>
+        <v>432876.9800800001</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>507546.34769</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>513816.24769</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>526065.031</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>14951.76399</v>
@@ -10036,17 +10553,22 @@
         <v>19207.04227</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>15166.85707</v>
+        <v>17516.85707</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>32701.32413</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>36823.82412999999</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>28174.149</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>24592.89343</v>
@@ -10064,13 +10586,13 @@
         <v>11985.41396</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>21409.77587</v>
+        <v>21543.11608</v>
       </c>
       <c r="I221" s="22" t="n">
         <v>16956.93957</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>16610.62002</v>
+        <v>16618.87138</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>15036.34458</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>14736.48126</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>15042.499</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>3540.44237</v>
@@ -10150,7 +10682,7 @@
         <v>10274.88845</v>
       </c>
       <c r="J223" s="33" t="n">
-        <v>42061.93625</v>
+        <v>42061.93624999999</v>
       </c>
       <c r="K223" s="23" t="n">
         <v>44255.97534</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>71628.25691</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>114825.538</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>411.06511</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>411.06511</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>1411.065</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>3115.53748</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>5257.89365</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>5493.05</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>42431.10178</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>46338.011</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>13.83978</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>23528.19637</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>61583.412</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>11154.66896</v>
@@ -10464,29 +11036,34 @@
         <v>13303.58651</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>36259.46714</v>
+        <v>36317.85652</v>
       </c>
       <c r="I231" s="23" t="n">
         <v>41753.71619</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>49087.51283</v>
+        <v>49305.86283</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>62192.57897</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>69943.78559999999</v>
+        <v>70007.85705000001</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>113082.04265</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>113113.7844</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>151008.407</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>1606.67519</v>
@@ -10504,13 +11081,13 @@
         <v>4461.50534</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>6636.321730000001</v>
+        <v>6694.71111</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>7138.20815</v>
+        <v>7138.208149999999</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>8565.78818</v>
+        <v>8576.705679999999</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>9246.859769999999</v>
@@ -10519,14 +11096,19 @@
         <v>10550.42156</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>11537.21261</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>11551.90161</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>15123.416</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>64.08633</v>
@@ -10561,15 +11143,20 @@
       <c r="M233" s="22" t="n">
         <v>40.06633</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>45.015</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
-        <v>5465.457050000001</v>
+        <v>5465.45705</v>
       </c>
       <c r="D234" s="22" t="n">
         <v>4541.85749</v>
@@ -10590,7 +11177,7 @@
         <v>28017.54179</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>31767.74003</v>
+        <v>31975.17253</v>
       </c>
       <c r="K234" s="22" t="n">
         <v>43677.37641</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>58431.30507</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>73707.306</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>735.57725</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>1191.9264</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>1191.927</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>3282.87314</v>
@@ -10676,17 +11273,22 @@
         <v>7926.72425</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>7675.44922</v>
+        <v>7739.52067</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>41881.53223999999</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>41898.58499</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>60940.743</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>23795.72719</v>
@@ -10704,69 +11306,79 @@
         <v>53153.869</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>130588.25977</v>
+        <v>130633.13002</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>163456.9735</v>
+        <v>163707.86226</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>177653.6462</v>
+        <v>178759.82508</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>238685.46503</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>281766.28734</v>
+        <v>281838.5187</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>324603.42565</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>326737.48122</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>419147.46</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-18165.9563</v>
       </c>
       <c r="D238" s="23" t="n">
-        <v>-5969.832280000001</v>
+        <v>-5969.83228</v>
       </c>
       <c r="E238" s="23" t="n">
-        <v>-6735.831969999998</v>
+        <v>-6735.831970000001</v>
       </c>
       <c r="F238" s="33" t="n">
         <v>-17943.55753</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-40533.67964</v>
+        <v>-40534.12681</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-70726.03438</v>
+        <v>-73511.56784</v>
       </c>
       <c r="I238" s="23" t="n">
         <v>-97598.31315</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-79219.88489</v>
+        <v>-89285.7914</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-108567.89265</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-119276.56068</v>
+        <v>-119284.52694</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-160565.98868</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-161915.39229</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-232250.085</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>9330.627709999999</v>
@@ -10781,32 +11393,37 @@
         <v>36980.75542</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>41308.43757</v>
+        <v>41307.06442</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>16592.62185</v>
+        <v>15916.05758</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>40785.97906000001</v>
+        <v>40883.58698</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>37951.02095000001</v>
+        <v>37096.19844000001</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>59341.21318999999</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>41367.56285</v>
+        <v>41167.20075</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>54252.35726</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>55424.35863000001</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>146439.737</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>14835.55848</v>
@@ -10821,75 +11438,85 @@
         <v>47393.03451999999</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>55303.07509999999</v>
+        <v>55303.0751</v>
       </c>
       <c r="H240" s="21" t="n">
         <v>45543.66974</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>53644.38942</v>
+        <v>53741.99733999999</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>67481.50725</v>
+        <v>67586.11068000001</v>
       </c>
       <c r="K240" s="22" t="n">
-        <v>82870.5104</v>
+        <v>82870.51039999998</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>88362.36356</v>
+        <v>88390.64993000001</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>138781.1709</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>140209.80368</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>182973.753</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
-        <v>5504.93077</v>
+        <v>5504.930770000001</v>
       </c>
       <c r="D241" s="22" t="n">
         <v>3071.01705</v>
       </c>
       <c r="E241" s="22" t="n">
-        <v>9010.90221</v>
+        <v>9010.902209999998</v>
       </c>
       <c r="F241" s="21" t="n">
         <v>10412.2791</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>13994.63753</v>
+        <v>13996.01068</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>28951.04789</v>
+        <v>29627.61216</v>
       </c>
       <c r="I241" s="22" t="n">
         <v>12858.41036</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>29530.4863</v>
+        <v>30489.91224</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>23529.29721</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>46994.80071</v>
+        <v>47223.44918</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>84528.81363999998</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>84785.44504999999</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>36534.016</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>291314.9733300001</v>
+        <v>291314.97333</v>
       </c>
       <c r="D242" s="47" t="n">
         <v>170042.94523</v>
@@ -10898,32 +11525,35 @@
         <v>220586.88997</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>523808.88214</v>
+        <v>523808.8821400001</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>805132.2195899999</v>
+        <v>805159.2704800001</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>1242262.16653</v>
+        <v>1264301.46566</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>1503735.73091</v>
+        <v>1504923.25323</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1766679.46823</v>
+        <v>1816395.50116</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>2153107.76884</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>2569444.79571</v>
+        <v>2570103.04314</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>2967461.511179999</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>2983040.095350001</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>3844191.77</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>224</v>
@@ -10957,29 +11590,32 @@
         <v>179</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H244" s="53" t="n">
+        <v>377</v>
+      </c>
+      <c r="I244" s="52" t="n">
         <v>376</v>
       </c>
-      <c r="I244" s="52" t="n">
-        <v>375</v>
-      </c>
       <c r="J244" s="53" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>421</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>460</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>484</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>547</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>